--- a/biology/Zoologie/Epeus_flavobilineatus/Epeus_flavobilineatus.xlsx
+++ b/biology/Zoologie/Epeus_flavobilineatus/Epeus_flavobilineatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Epeus flavobilineatus est une espèce d'araignées aranéomorphes de la famille des Salticidae et du genre Epeus[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Epeus flavobilineatus est une espèce d'araignées aranéomorphes de la famille des Salticidae et du genre Epeus.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Epeus flavobilineatus se rencontre en Asie, notamment à Java[2] en Indonésie, en Malaisie[3], au Brunei[4] et à Singapour[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Epeus flavobilineatus se rencontre en Asie, notamment à Java en Indonésie, en Malaisie, au Brunei et à Singapour.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce affectionne les forêts de diptérocarpes, les mangroves et les jardins[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce affectionne les forêts de diptérocarpes, les mangroves et les jardins.
 </t>
         </is>
       </c>
@@ -573,51 +589,54 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle mesure de l'ordre de 5 mm de long[2].
-Description de la femelle
-Le thorax, d'une couleur jaunâtre, est légèrement plus large en arrière qu'en avant[2]. 
-Les yeux médians antérieurs sont grands et très ronds[2].
-L'abdomen, plus étroit que le thorax, est long et pointu. D'une couleur vert clair au milieu, il présente deux fines bandes longitudinales jaune citron qui se rejoignent aux deux extrémités[2].
-Les pattes, jaunâtres et légèrement plus longues que le corps, sont de force égale.  Elles arborent de courtes épines sur le bord intérieur[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle mesure de l'ordre de 5 mm de long.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Epeus_flavobilineatus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Epeus_flavobilineatus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Description de la femelle</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le thorax, d'une couleur jaunâtre, est légèrement plus large en arrière qu'en avant. 
+Les yeux médians antérieurs sont grands et très ronds.
+L'abdomen, plus étroit que le thorax, est long et pointu. D'une couleur vert clair au milieu, il présente deux fines bandes longitudinales jaune citron qui se rejoignent aux deux extrémités.
+Les pattes, jaunâtres et légèrement plus longues que le corps, sont de force égale.  Elles arborent de courtes épines sur le bord intérieur.
 			Epeus flavobilineatus ♀
 			Epeus flavobilineatus ♀
 			Epeus flavobilineatus ♀
-Description du mâle
-Le mâle n'a pas encore été décrit[6]. Cependant plusieurs ouvrages en présentent des photographies[3],[5].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Epeus_flavobilineatus</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Epeus_flavobilineatus</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Comportement</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alimentation
-Epeus flavobilineatus s'attaque à d'autres espèces d'araignées comme celles du genre Chrysso[4].
 </t>
         </is>
       </c>
@@ -643,14 +662,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Liste des synonymes</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Selon World Spider Catalog                                (23/03/2019, version 20.0)[7] :
-Salticus flavobilineatus Doleschall, 1859 (protonyme)
-Viciria flavo-bilineata Thorell, 1892</t>
+          <t>Description du mâle</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle n'a pas encore été décrit. Cependant plusieurs ouvrages en présentent des photographies,.
+</t>
         </is>
       </c>
     </row>
@@ -675,13 +699,86 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Comportement</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Epeus flavobilineatus s'attaque à d'autres espèces d'araignées comme celles du genre Chrysso.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Epeus_flavobilineatus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Epeus_flavobilineatus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste des synonymes</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (23/03/2019, version 20.0) :
+Salticus flavobilineatus Doleschall, 1859 (protonyme)
+Viciria flavo-bilineata Thorell, 1892</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Epeus_flavobilineatus</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Epeus_flavobilineatus</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Doleschall, L. 1859. Tweede Bijdrage tot de kennis der Arachniden van den Indischen Archipel. Acta Societatis Scientiarum Indica-Neerlandica, 5: 1-60.
-Cette espèce a été décrite par le naturaliste autrichien Carl Ludwig Doleschall en 1859 sous le protonyme Salticus flavobilineatus[2] et transférée dans le genre Epeus[8]. 
+Cette espèce a été décrite par le naturaliste autrichien Carl Ludwig Doleschall en 1859 sous le protonyme Salticus flavobilineatus et transférée dans le genre Epeus. 
 </t>
         </is>
       </c>
